--- a/B1-Oriol-Tecnologia de la fabricació de paper/practicas_laboratorio/practica_1_oriol.xlsx
+++ b/B1-Oriol-Tecnologia de la fabricació de paper/practicas_laboratorio/practica_1_oriol.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Tabla 1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="AL8tsvk0gr16mPvoir7aKoc0iN4PMcWi8IuIgla6nM0="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="RStZ9zodtpzf0bYktojwk0uaZiC+fllPqiYTqMAKAPY="/>
     </ext>
   </extLst>
 </workbook>
